--- a/opencart.com.xlsx
+++ b/opencart.com.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Product Name</t>
   </si>
@@ -163,6 +163,59 @@
   <si>
     <t>1. User should be logged in, take to 'Account Success' page and proper details should be displayed on the page
 2. user should be taken to 'Account' page.</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Validate Registering an account
+ by providing an invalid phone
+ number.</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' drop menu.
+ 2.Click on 'Register' option.
+3.Enter New Account Details into the mandatory fields (First Name, Last Name, E-Mail, Telephone, Password, Password, Password Confirm, Newsletter and Privacy  Policy Fields)
+4. Enter invalid phone number into the Telephone field &lt;Refer Test Data&gt;
+5. Click to 'Continue' button</t>
+  </si>
+  <si>
+    <t>Try all below invalid phone number formats:
+1) 111111111111
+2) abcdefghijk</t>
+  </si>
+  <si>
+    <t>1. Account should not be created, instead a proper warning message should be displayed.</t>
+  </si>
+  <si>
+    <t>1. Warning message is not getting displayed, insted an Account is getting created with given invalid phone number.</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Validate Registering an account
+ by providing the exixting account details (i.e. existing email address )</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' drop menu.
+ 2.Click on 'Register' option.
+3.Enter Existing Account Details (First Name, Last Name, E-Mail, Telephone, Password, Password, Password Confirm, Newsletter and Privacy  Policy Fields)
+4.Click on 'Continue' button.</t>
+  </si>
+  <si>
+    <t>First Name: Arafat 
+Last Name: Ali
+E-Mail: iamarafat071@gmail.com
+Telephone: 01796105264
+Password: 12345678
+Confirm Password: 12345678</t>
+  </si>
+  <si>
+    <t>1. Account should not be created again, instead a proper warning message'Warning: E-Mail adress is already registered!' should be displayed.</t>
+  </si>
+  <si>
+    <t>1. Warning message as specified in the Expected Results got displayed.</t>
   </si>
 </sst>
 </file>
@@ -170,11 +223,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
     <numFmt numFmtId="179" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="26">
@@ -226,10 +279,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,100 +372,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,14 +403,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,187 +504,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,10 +769,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -740,15 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -764,6 +806,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -775,15 +837,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,15 +869,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,134 +887,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,10 +1087,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1468,7 +1524,7 @@
       </c>
       <c r="H2" s="13">
         <f>COUNTIF(G8:G21,"PASS")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1487,7 +1543,7 @@
       </c>
       <c r="H3" s="17">
         <f>COUNTIF(G7:G16,"FAIL")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1573,16 +1629,16 @@
       <c r="C9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="21"/>
@@ -1597,7 +1653,7 @@
       <c r="C10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="22" t="s">
@@ -1606,29 +1662,57 @@
       <c r="F10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+    <row r="11" ht="183" customHeight="1" spans="1:8">
+      <c r="A11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+    <row r="12" ht="168" customHeight="1" spans="1:8">
+      <c r="A12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
